--- a/VersionRecords/Version 5.1.8.4 20161221/版本Bug和特性计划及评审表v5.1.8.4_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.8.4 20161221/版本Bug和特性计划及评审表v5.1.8.4_EQ组.xlsx
@@ -1111,7 +1111,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1387,7 +1387,7 @@
         <v>71</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>69</v>

--- a/VersionRecords/Version 5.1.8.4 20161221/版本Bug和特性计划及评审表v5.1.8.4_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.8.4 20161221/版本Bug和特性计划及评审表v5.1.8.4_EQ组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
   <si>
     <t>No</t>
   </si>
@@ -225,10 +225,6 @@
   <si>
     <t>技术经理</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>验证通过</t>
@@ -1111,7 +1107,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1216,13 +1212,13 @@
         <v>43</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>36</v>
@@ -1244,10 +1240,10 @@
         <v>38</v>
       </c>
       <c r="N2" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" s="11">
         <v>42725</v>
@@ -1272,10 +1268,10 @@
         <v>43</v>
       </c>
       <c r="D3" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>44</v>
@@ -1300,10 +1296,10 @@
         <v>38</v>
       </c>
       <c r="N3" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="11">
         <v>42725</v>
@@ -1329,13 +1325,13 @@
         <v>43</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>36</v>
@@ -1351,16 +1347,16 @@
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P4" s="11">
         <v>42725</v>
@@ -1384,13 +1380,13 @@
         <v>43</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>36</v>
@@ -1412,16 +1408,16 @@
         <v>38</v>
       </c>
       <c r="N5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="P5" s="11">
         <v>42725</v>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R5" s="7">
         <v>6754</v>
